--- a/uploads/student_import.xlsx
+++ b/uploads/student_import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ro\Cervantes\TESIS\Excel para cargar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC9F92B-FC18-48DF-A3CA-2B39F52B443D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19725" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
   <si>
     <t>Apellido</t>
   </si>
@@ -49,150 +48,12 @@
     <t>Altura</t>
   </si>
   <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>Romero</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>Díaz</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Mateo</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Camila</t>
-  </si>
-  <si>
-    <t>Sofía</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>martina.rodríguez@gmail.com</t>
-  </si>
-  <si>
-    <t>valentina.sánchez@gmail.com</t>
-  </si>
-  <si>
-    <t>valentina.lópez@gmail.com</t>
-  </si>
-  <si>
-    <t>valentina.fernández@gmail.com</t>
-  </si>
-  <si>
-    <t>mateo.pérez@gmail.com</t>
-  </si>
-  <si>
-    <t>santiago.romero@gmail.com</t>
-  </si>
-  <si>
-    <t>martina.gómez@gmail.com</t>
-  </si>
-  <si>
-    <t>mateo.martínez@gmail.com</t>
-  </si>
-  <si>
-    <t>santiago.fernández@gmail.com</t>
-  </si>
-  <si>
-    <t>valentina.romero@gmail.com</t>
-  </si>
-  <si>
-    <t>camila.martínez@gmail.com</t>
-  </si>
-  <si>
-    <t>mateo.díaz@gmail.com</t>
-  </si>
-  <si>
-    <t>sofía.martínez@gmail.com</t>
-  </si>
-  <si>
-    <t>mateo.lópez@gmail.com</t>
-  </si>
-  <si>
-    <t>camila.gonzález@gmail.com</t>
-  </si>
-  <si>
-    <t>1537155532</t>
-  </si>
-  <si>
-    <t>1527329721</t>
-  </si>
-  <si>
-    <t>1528405597</t>
-  </si>
-  <si>
-    <t>1531079580</t>
-  </si>
-  <si>
-    <t>1526861134</t>
-  </si>
-  <si>
-    <t>1538411293</t>
-  </si>
-  <si>
-    <t>1531178160</t>
-  </si>
-  <si>
-    <t>1528006621</t>
-  </si>
-  <si>
-    <t>1537043659</t>
-  </si>
-  <si>
-    <t>1524187952</t>
-  </si>
-  <si>
-    <t>1539717156</t>
-  </si>
-  <si>
-    <t>1539315642</t>
-  </si>
-  <si>
-    <t>1528726038</t>
-  </si>
-  <si>
-    <t>1522692686</t>
-  </si>
-  <si>
-    <t>1527220957</t>
-  </si>
-  <si>
     <t>Córdoba</t>
   </si>
   <si>
@@ -202,90 +63,21 @@
     <t>General Paz</t>
   </si>
   <si>
-    <t>Villa El Libertador</t>
-  </si>
-  <si>
-    <t>Cofico</t>
-  </si>
-  <si>
     <t>Nueva Córdoba</t>
   </si>
   <si>
     <t>Alberdi</t>
   </si>
   <si>
-    <t>Centro</t>
-  </si>
-  <si>
     <t>Guiñazú</t>
   </si>
   <si>
     <t>San Vicente</t>
   </si>
   <si>
-    <t>Observatorio</t>
-  </si>
-  <si>
-    <t>Urca</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Villa El Nylon</t>
-  </si>
-  <si>
-    <t>Villa Urquiza</t>
-  </si>
-  <si>
-    <t>Poeta Lugones</t>
-  </si>
-  <si>
-    <t>Félix Frías</t>
-  </si>
-  <si>
-    <t>Jacinto Ríos</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>Campillo</t>
-  </si>
-  <si>
-    <t>Chacabuco</t>
-  </si>
-  <si>
-    <t>Humberto Primo</t>
-  </si>
-  <si>
-    <t>Rivadavia</t>
-  </si>
-  <si>
-    <t>Av. Juan B. Justo</t>
-  </si>
-  <si>
     <t>Diego de Torres</t>
   </si>
   <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Tejeda</t>
-  </si>
-  <si>
-    <t>Luis Agote</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Blas Parera</t>
-  </si>
-  <si>
-    <t>Manuel Carles</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -308,12 +100,267 @@
   </si>
   <si>
     <t>Código postal</t>
+  </si>
+  <si>
+    <t>maite.guerra@gmail.com</t>
+  </si>
+  <si>
+    <t>154802611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Urquiza</t>
+  </si>
+  <si>
+    <t>fernando.cañizares@gmail.com</t>
+  </si>
+  <si>
+    <t>156403039</t>
+  </si>
+  <si>
+    <t>5014</t>
+  </si>
+  <si>
+    <t>Cerro de las Rosas</t>
+  </si>
+  <si>
+    <t>Rafael Núñez</t>
+  </si>
+  <si>
+    <t>chus.mur@gmail.com</t>
+  </si>
+  <si>
+    <t>06/01/2007</t>
+  </si>
+  <si>
+    <t>155898504</t>
+  </si>
+  <si>
+    <t>San Jerónimo</t>
+  </si>
+  <si>
+    <t>leonor.alonso@gmail.com</t>
+  </si>
+  <si>
+    <t>17/01/2007</t>
+  </si>
+  <si>
+    <t>159513712</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>Calle Pública</t>
+  </si>
+  <si>
+    <t>eustaquio.gutiérrez@gmail.com</t>
+  </si>
+  <si>
+    <t>01/07/2007</t>
+  </si>
+  <si>
+    <t>154999328</t>
+  </si>
+  <si>
+    <t>wilfredo.garcía@gmail.com</t>
+  </si>
+  <si>
+    <t>21/09/2008</t>
+  </si>
+  <si>
+    <t>153802943</t>
+  </si>
+  <si>
+    <t>Pringles</t>
+  </si>
+  <si>
+    <t>nidia.batalla@gmail.com</t>
+  </si>
+  <si>
+    <t>14/04/2007</t>
+  </si>
+  <si>
+    <t>152814786</t>
+  </si>
+  <si>
+    <t>5012</t>
+  </si>
+  <si>
+    <t>pepita.castellanos@gmail.com</t>
+  </si>
+  <si>
+    <t>02/03/2007</t>
+  </si>
+  <si>
+    <t>159892939</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
+    <t>soraya.oliva@gmail.com</t>
+  </si>
+  <si>
+    <t>154268687</t>
+  </si>
+  <si>
+    <t>Jerónimo Luis de Cabrera</t>
+  </si>
+  <si>
+    <t>julián.garzón@gmail.com</t>
+  </si>
+  <si>
+    <t>152677469</t>
+  </si>
+  <si>
+    <t>trinidad.amador@gmail.com</t>
+  </si>
+  <si>
+    <t>156668294</t>
+  </si>
+  <si>
+    <t>Pasaje Aguaducho</t>
+  </si>
+  <si>
+    <t>fortunata.alvarado@gmail.com</t>
+  </si>
+  <si>
+    <t>156524931</t>
+  </si>
+  <si>
+    <t>5009</t>
+  </si>
+  <si>
+    <t>telmo.andrés@gmail.com</t>
+  </si>
+  <si>
+    <t>11/09/2008</t>
+  </si>
+  <si>
+    <t>157999654</t>
+  </si>
+  <si>
+    <t>Hipólito Yrigoyen</t>
+  </si>
+  <si>
+    <t>cándida.bermúdez@gmail.com</t>
+  </si>
+  <si>
+    <t>158423858</t>
+  </si>
+  <si>
+    <t>candela.pera@gmail.com</t>
+  </si>
+  <si>
+    <t>06/10/2008</t>
+  </si>
+  <si>
+    <t>155818542</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Maite</t>
+  </si>
+  <si>
+    <t>Cañizares</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Mur</t>
+  </si>
+  <si>
+    <t>Chus</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>Leonor</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>Eustaquio</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Wilfredo</t>
+  </si>
+  <si>
+    <t>Batalla</t>
+  </si>
+  <si>
+    <t>Nidia</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Pepita</t>
+  </si>
+  <si>
+    <t>Oliva</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
+    <t>Garzón</t>
+  </si>
+  <si>
+    <t>Julián</t>
+  </si>
+  <si>
+    <t>Amador</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Fortunata</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Telmo</t>
+  </si>
+  <si>
+    <t>Bermúdez</t>
+  </si>
+  <si>
+    <t>Cándida</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Candela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -359,15 +406,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DD9D9EF0-5EED-41CA-B6DC-6B6FC07939DF}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,9 +435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,9 +475,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,7 +547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -668,11 +720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -686,73 +738,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2">
-        <v>47273663</v>
+        <v>48042910</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>5015</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -761,731 +813,776 @@
         <v>27</v>
       </c>
       <c r="H2">
-        <v>47273663</v>
-      </c>
-      <c r="I2" s="1">
-        <v>39115</v>
+        <v>48042910</v>
+      </c>
+      <c r="I2" s="3">
+        <v>39733</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2">
-        <v>5000</v>
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Q2">
-        <v>3417</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>47273664</v>
+        <v>48360015</v>
       </c>
       <c r="E3">
-        <v>5001</v>
+        <v>5016</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>47273664</v>
-      </c>
-      <c r="I3" s="1">
-        <v>39221</v>
+        <v>48360015</v>
+      </c>
+      <c r="I3" s="3">
+        <v>39705</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3">
-        <v>5001</v>
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q3">
-        <v>1240</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>47273665</v>
+        <v>48184523</v>
       </c>
       <c r="E4">
-        <v>5002</v>
+        <v>5017</v>
       </c>
       <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>48184523</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>47273665</v>
-      </c>
-      <c r="I4" s="1">
-        <v>39139</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4">
-        <v>5002</v>
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Q4">
-        <v>1303</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>47273666</v>
+        <v>48172444</v>
       </c>
       <c r="E5">
-        <v>5003</v>
+        <v>5018</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>47273666</v>
-      </c>
-      <c r="I5" s="1">
-        <v>38913</v>
+        <v>48172444</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5">
-        <v>5003</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
       <c r="Q5">
-        <v>4685</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>47273667</v>
+        <v>48877117</v>
       </c>
       <c r="E6">
-        <v>5004</v>
+        <v>5019</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>47273667</v>
-      </c>
-      <c r="I6" s="1">
-        <v>38933</v>
+        <v>48877117</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6">
-        <v>5004</v>
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="Q6">
-        <v>4007</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>47273668</v>
+        <v>48372607</v>
       </c>
       <c r="E7">
-        <v>5005</v>
+        <v>5020</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H7">
-        <v>47273668</v>
-      </c>
-      <c r="I7" s="1">
-        <v>39165</v>
+        <v>48372607</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7">
-        <v>5005</v>
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="Q7">
-        <v>864</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>47273669</v>
+        <v>48997198</v>
       </c>
       <c r="E8">
-        <v>5006</v>
+        <v>5021</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>47273669</v>
-      </c>
-      <c r="I8" s="1">
-        <v>39247</v>
+        <v>48997198</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8">
-        <v>5006</v>
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="Q8">
-        <v>2764</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>47273670</v>
+        <v>48418886</v>
       </c>
       <c r="E9">
-        <v>5007</v>
+        <v>5022</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H9">
-        <v>47273670</v>
-      </c>
-      <c r="I9" s="1">
-        <v>39099</v>
+        <v>48418886</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9">
-        <v>5007</v>
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q9">
-        <v>4548</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>48102012</v>
+      </c>
+      <c r="E10">
+        <v>5023</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>48102012</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39764</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>47273671</v>
-      </c>
-      <c r="E10">
-        <v>5008</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10">
-        <v>47273671</v>
-      </c>
-      <c r="I10" s="1">
-        <v>39168</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10">
-        <v>5008</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Q10">
-        <v>993</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D11">
-        <v>47273672</v>
+        <v>48866682</v>
       </c>
       <c r="E11">
-        <v>5009</v>
+        <v>5024</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H11">
-        <v>47273672</v>
-      </c>
-      <c r="I11" s="1">
-        <v>39168</v>
+        <v>48866682</v>
+      </c>
+      <c r="I11" s="3">
+        <v>39733</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11">
-        <v>5009</v>
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="Q11">
-        <v>2825</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>47273673</v>
+        <v>48659946</v>
       </c>
       <c r="E12">
-        <v>5010</v>
+        <v>5025</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H12">
-        <v>47273673</v>
-      </c>
-      <c r="I12" s="1">
-        <v>39170</v>
+        <v>48659946</v>
+      </c>
+      <c r="I12" s="3">
+        <v>39106</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12">
-        <v>5010</v>
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
         <v>68</v>
       </c>
-      <c r="P12" t="s">
-        <v>83</v>
-      </c>
       <c r="Q12">
-        <v>3745</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>47273674</v>
+        <v>48539872</v>
       </c>
       <c r="E13">
-        <v>5011</v>
+        <v>5026</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>47273674</v>
-      </c>
-      <c r="I13" s="1">
-        <v>39134</v>
+        <v>48539872</v>
+      </c>
+      <c r="I13" s="3">
+        <v>39191</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13">
-        <v>5011</v>
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="Q13">
-        <v>2478</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>47273675</v>
+        <v>48727116</v>
       </c>
       <c r="E14">
-        <v>5012</v>
+        <v>5027</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="H14">
-        <v>47273675</v>
-      </c>
-      <c r="I14" s="1">
-        <v>39133</v>
+        <v>48727116</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14">
-        <v>5012</v>
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q14">
-        <v>665</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>47273676</v>
+        <v>48828123</v>
       </c>
       <c r="E15">
-        <v>5013</v>
+        <v>5028</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H15">
-        <v>47273676</v>
-      </c>
-      <c r="I15" s="1">
-        <v>39006</v>
+        <v>48828123</v>
+      </c>
+      <c r="I15" s="3">
+        <v>39288</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15">
-        <v>5013</v>
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="P15" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="Q15">
-        <v>3305</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>47273677</v>
+        <v>48626512</v>
       </c>
       <c r="E16">
-        <v>5014</v>
+        <v>5029</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H16">
-        <v>47273677</v>
-      </c>
-      <c r="I16" s="1">
-        <v>38997</v>
+        <v>48626512</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16">
-        <v>5014</v>
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>4931</v>
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
